--- a/Momentum_test/result.xlsx
+++ b/Momentum_test/result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31020" yWindow="1760" windowWidth="24560" windowHeight="21480" tabRatio="500"/>
+    <workbookView xWindow="31240" yWindow="-4140" windowWidth="24560" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="150">
   <si>
     <t xml:space="preserve">(3 3) </t>
   </si>
@@ -83,16 +83,397 @@
     <t>big</t>
   </si>
   <si>
-    <t>diff_t_test</t>
-  </si>
-  <si>
     <t>winner_next</t>
   </si>
   <si>
     <t>loser_next</t>
   </si>
   <si>
-    <t>diff</t>
+    <t>0.0230042,(0.897914)</t>
+  </si>
+  <si>
+    <t>0.0358036,(1.48144)</t>
+  </si>
+  <si>
+    <t>0.0498951,(1.9875)</t>
+  </si>
+  <si>
+    <t>0.0687901,(2.38571)</t>
+  </si>
+  <si>
+    <t>0.0589117,(2.4998)</t>
+  </si>
+  <si>
+    <t>0.0562698,(2.693)</t>
+  </si>
+  <si>
+    <t>0.0587815,(2.96069)</t>
+  </si>
+  <si>
+    <t>0.0673604,(3.30579)</t>
+  </si>
+  <si>
+    <t>0.0620563,(3.38976)</t>
+  </si>
+  <si>
+    <t>0.0601006,(3.53183)</t>
+  </si>
+  <si>
+    <t>0.0610137,(3.74306)</t>
+  </si>
+  <si>
+    <t>0.0650805,(4.02173)</t>
+  </si>
+  <si>
+    <t>0.0617731,(4.1054)</t>
+  </si>
+  <si>
+    <t>0.0609634,(4.26321)</t>
+  </si>
+  <si>
+    <t>0.0623143,(4.48282)</t>
+  </si>
+  <si>
+    <t>0.06545,(4.71988)</t>
+  </si>
+  <si>
+    <t>0.0231884,(0.902859)</t>
+  </si>
+  <si>
+    <t>0.0359521,(1.48518)</t>
+  </si>
+  <si>
+    <t>0.0500563,(1.9912)</t>
+  </si>
+  <si>
+    <t>0.0690775,(2.39087)</t>
+  </si>
+  <si>
+    <t>0.0591655,(2.50555)</t>
+  </si>
+  <si>
+    <t>0.056491,(2.69842)</t>
+  </si>
+  <si>
+    <t>0.0589895,(2.96595)</t>
+  </si>
+  <si>
+    <t>0.0676289,(3.3121)</t>
+  </si>
+  <si>
+    <t>0.0623163,(3.39695)</t>
+  </si>
+  <si>
+    <t>0.0603652,(3.54011)</t>
+  </si>
+  <si>
+    <t>0.0612852,(3.75228)</t>
+  </si>
+  <si>
+    <t>0.0654205,(4.03321)</t>
+  </si>
+  <si>
+    <t>0.0620917,(4.11696)</t>
+  </si>
+  <si>
+    <t>0.0612748,(4.27512)</t>
+  </si>
+  <si>
+    <t>0.0626123,(4.49444)</t>
+  </si>
+  <si>
+    <t>0.0657431,(4.73155)</t>
+  </si>
+  <si>
+    <t>0.0231297,(0.900872)</t>
+  </si>
+  <si>
+    <t>0.0358733,(1.48245)</t>
+  </si>
+  <si>
+    <t>0.0500033,(1.98937)</t>
+  </si>
+  <si>
+    <t>0.0690374,(2.38962)</t>
+  </si>
+  <si>
+    <t>0.0591233,(2.50393)</t>
+  </si>
+  <si>
+    <t>0.0564385,(2.69618)</t>
+  </si>
+  <si>
+    <t>0.0589444,(2.96392)</t>
+  </si>
+  <si>
+    <t>0.0675892,(3.31035)</t>
+  </si>
+  <si>
+    <t>0.0622742,(3.39488)</t>
+  </si>
+  <si>
+    <t>0.0603156,(3.53752)</t>
+  </si>
+  <si>
+    <t>0.0612401,(3.74983)</t>
+  </si>
+  <si>
+    <t>0.065379,(4.03093)</t>
+  </si>
+  <si>
+    <t>0.0620486,(4.1144)</t>
+  </si>
+  <si>
+    <t>0.0612251,(4.27208)</t>
+  </si>
+  <si>
+    <t>0.0625658,(4.49151)</t>
+  </si>
+  <si>
+    <t>0.0656995,(4.72879)</t>
+  </si>
+  <si>
+    <t>0.010218,(0.419924)</t>
+  </si>
+  <si>
+    <t>0.0326272,(1.45152)</t>
+  </si>
+  <si>
+    <t>0.0517357,(2.26263)</t>
+  </si>
+  <si>
+    <t>0.0772527,(3.09548)</t>
+  </si>
+  <si>
+    <t>0.066698,(3.25009)</t>
+  </si>
+  <si>
+    <t>0.0669744,(3.65172)</t>
+  </si>
+  <si>
+    <t>0.0746451,(4.23549)</t>
+  </si>
+  <si>
+    <t>0.0867704,(4.78554)</t>
+  </si>
+  <si>
+    <t>0.0795084,(4.87175)</t>
+  </si>
+  <si>
+    <t>0.0789607,(5.20255)</t>
+  </si>
+  <si>
+    <t>0.0826155,(5.62648)</t>
+  </si>
+  <si>
+    <t>0.0899654,(6.07167)</t>
+  </si>
+  <si>
+    <t>0.0853728,(6.18841)</t>
+  </si>
+  <si>
+    <t>0.0842964,(6.42025)</t>
+  </si>
+  <si>
+    <t>0.086293,(6.74282)</t>
+  </si>
+  <si>
+    <t>0.0914376,(7.11797)</t>
+  </si>
+  <si>
+    <t>0.0173138,(0.782432)</t>
+  </si>
+  <si>
+    <t>0.0385648,(1.71691)</t>
+  </si>
+  <si>
+    <t>0.0593666,(2.46548)</t>
+  </si>
+  <si>
+    <t>0.0798622,(3.13267)</t>
+  </si>
+  <si>
+    <t>0.0684504,(3.28575)</t>
+  </si>
+  <si>
+    <t>0.0684516,(3.68221)</t>
+  </si>
+  <si>
+    <t>0.0744685,(4.17644)</t>
+  </si>
+  <si>
+    <t>0.0833949,(4.65209)</t>
+  </si>
+  <si>
+    <t>0.0767108,(4.76231)</t>
+  </si>
+  <si>
+    <t>0.0757896,(5.06288)</t>
+  </si>
+  <si>
+    <t>0.0784543,(5.42591)</t>
+  </si>
+  <si>
+    <t>0.0845702,(5.81552)</t>
+  </si>
+  <si>
+    <t>0.0801452,(5.92729)</t>
+  </si>
+  <si>
+    <t>0.0793474,(6.17831)</t>
+  </si>
+  <si>
+    <t>0.0813447,(6.49673)</t>
+  </si>
+  <si>
+    <t>0.0861108,(6.82987)</t>
+  </si>
+  <si>
+    <t>diff_t</t>
+  </si>
+  <si>
+    <t>-0.0129704,(-0.987823)</t>
+  </si>
+  <si>
+    <t>-0.00332491,(-0.28586)</t>
+  </si>
+  <si>
+    <t>0.00167934,(0.136392)</t>
+  </si>
+  <si>
+    <t>0.00817527,(0.542516)</t>
+  </si>
+  <si>
+    <t>0.00753246,(0.613097)</t>
+  </si>
+  <si>
+    <t>0.0104834,(0.980292)</t>
+  </si>
+  <si>
+    <t>0.0156556,(1.59852)</t>
+  </si>
+  <si>
+    <t>0.0191415,(2.00793)</t>
+  </si>
+  <si>
+    <t>0.0171921,(2.00113)</t>
+  </si>
+  <si>
+    <t>0.0185956,(2.3327)</t>
+  </si>
+  <si>
+    <t>0.0213303,(2.83245)</t>
+  </si>
+  <si>
+    <t>0.0245449,(3.3872)</t>
+  </si>
+  <si>
+    <t>0.0232811,(3.44132)</t>
+  </si>
+  <si>
+    <t>0.0230215,(3.57596)</t>
+  </si>
+  <si>
+    <t>0.0236808,(3.82348)</t>
+  </si>
+  <si>
+    <t>0.0256945,(4.23741)</t>
+  </si>
+  <si>
+    <t>-0.0058159,(-0.496617)</t>
+  </si>
+  <si>
+    <t>0.00269156,(0.244548)</t>
+  </si>
+  <si>
+    <t>0.00936328,(0.85007)</t>
+  </si>
+  <si>
+    <t>0.0108249,(0.864538)</t>
+  </si>
+  <si>
+    <t>0.00932713,(0.907632)</t>
+  </si>
+  <si>
+    <t>0.0120131,(1.28441)</t>
+  </si>
+  <si>
+    <t>0.0155241,(1.77136)</t>
+  </si>
+  <si>
+    <t>0.0158057,(1.79724)</t>
+  </si>
+  <si>
+    <t>0.0144366,(1.81661)</t>
+  </si>
+  <si>
+    <t>0.015474,(2.08417)</t>
+  </si>
+  <si>
+    <t>0.0172143,(2.45364)</t>
+  </si>
+  <si>
+    <t>0.0191912,(2.855)</t>
+  </si>
+  <si>
+    <t>0.0180966,(2.88192)</t>
+  </si>
+  <si>
+    <t>0.0181223,(3.0218)</t>
+  </si>
+  <si>
+    <t>0.0187789,(3.24583)</t>
+  </si>
+  <si>
+    <t>0.0204113,(3.61211)</t>
+  </si>
+  <si>
+    <t>0.0072755,(0.62117)</t>
+  </si>
+  <si>
+    <t>0.0160951,(1.41239)</t>
+  </si>
+  <si>
+    <t>0.0219687,(1.69803)</t>
+  </si>
+  <si>
+    <t>0.018259,(1.6934)</t>
+  </si>
+  <si>
+    <t>0.0189581,(1.88237)</t>
+  </si>
+  <si>
+    <t>0.0219996,(2.27622)</t>
+  </si>
+  <si>
+    <t>0.023257,(2.41036)</t>
+  </si>
+  <si>
+    <t>0.0222743,(2.54131)</t>
+  </si>
+  <si>
+    <t>0.0235068,(2.82715)</t>
+  </si>
+  <si>
+    <t>0.0257339,(3.20103)</t>
+  </si>
+  <si>
+    <t>0.02795,(3.54687)</t>
+  </si>
+  <si>
+    <t>0.0263,(3.56797)</t>
+  </si>
+  <si>
+    <t>0.0253548,(3.58015)</t>
+  </si>
+  <si>
+    <t>0.0253388,(3.65261)</t>
+  </si>
+  <si>
+    <t>0.0261828,(3.79963)</t>
+  </si>
+  <si>
+    <t>0.0004496,(0.00335504)</t>
   </si>
 </sst>
 </file>
@@ -411,17 +792,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56:D71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -437,912 +824,686 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>-0.98782300000000001</v>
-      </c>
-      <c r="C2">
-        <v>-0.49661699999999998</v>
-      </c>
-      <c r="D2">
-        <v>3.3550400000000001E-3</v>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>-0.28586</v>
-      </c>
-      <c r="C3">
-        <v>0.24454799999999999</v>
-      </c>
-      <c r="D3">
-        <v>0.62117</v>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.13639200000000001</v>
-      </c>
-      <c r="C4">
-        <v>0.85006999999999999</v>
-      </c>
-      <c r="D4">
-        <v>1.41239</v>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.542516</v>
-      </c>
-      <c r="C5">
-        <v>0.86453800000000003</v>
-      </c>
-      <c r="D5">
-        <v>1.6980299999999999</v>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.613097</v>
-      </c>
-      <c r="C6">
-        <v>0.90763199999999999</v>
-      </c>
-      <c r="D6">
-        <v>1.6934</v>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.98029200000000005</v>
-      </c>
-      <c r="C7">
-        <v>1.2844100000000001</v>
-      </c>
-      <c r="D7">
-        <v>1.8823700000000001</v>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1.5985199999999999</v>
-      </c>
-      <c r="C8">
-        <v>1.77136</v>
-      </c>
-      <c r="D8">
-        <v>2.2762199999999999</v>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>2.00793</v>
-      </c>
-      <c r="C9">
-        <v>1.7972399999999999</v>
-      </c>
-      <c r="D9">
-        <v>2.4103599999999998</v>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>2.0011299999999999</v>
-      </c>
-      <c r="C10">
-        <v>1.8166100000000001</v>
-      </c>
-      <c r="D10">
-        <v>2.5413100000000002</v>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>2.3327</v>
-      </c>
-      <c r="C11">
-        <v>2.0841699999999999</v>
-      </c>
-      <c r="D11">
-        <v>2.8271500000000001</v>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>2.8324500000000001</v>
-      </c>
-      <c r="C12">
-        <v>2.45364</v>
-      </c>
-      <c r="D12">
-        <v>3.2010299999999998</v>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>3.3872</v>
-      </c>
-      <c r="C13">
-        <v>2.855</v>
-      </c>
-      <c r="D13">
-        <v>3.5468700000000002</v>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>3.4413200000000002</v>
-      </c>
-      <c r="C14">
-        <v>2.88192</v>
-      </c>
-      <c r="D14">
-        <v>3.5679699999999999</v>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>3.5759599999999998</v>
-      </c>
-      <c r="C15">
-        <v>3.0217999999999998</v>
-      </c>
-      <c r="D15">
-        <v>3.5801500000000002</v>
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>3.82348</v>
-      </c>
-      <c r="C16">
-        <v>3.2458300000000002</v>
-      </c>
-      <c r="D16">
-        <v>3.6526100000000001</v>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>4.2374099999999997</v>
-      </c>
-      <c r="C17">
-        <v>3.6121099999999999</v>
-      </c>
-      <c r="D17">
-        <v>3.7996300000000001</v>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
-      <c r="B20">
-        <v>1.0218E-2</v>
-      </c>
-      <c r="C20">
-        <v>1.7313800000000001E-2</v>
-      </c>
-      <c r="D20">
-        <v>2.3049099999999999E-2</v>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
-      <c r="B21">
-        <v>3.2627200000000002E-2</v>
-      </c>
-      <c r="C21">
-        <v>3.8564800000000003E-2</v>
-      </c>
-      <c r="D21">
-        <v>4.3079100000000002E-2</v>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="B22">
-        <v>5.1735700000000003E-2</v>
-      </c>
-      <c r="C22">
-        <v>5.9366599999999999E-2</v>
-      </c>
-      <c r="D22">
-        <v>6.5990199999999999E-2</v>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3</v>
       </c>
-      <c r="B23">
-        <v>7.7252699999999994E-2</v>
-      </c>
-      <c r="C23">
-        <v>7.9862199999999994E-2</v>
-      </c>
-      <c r="D23">
-        <v>9.0758699999999998E-2</v>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
-      <c r="B24">
-        <v>6.6697999999999993E-2</v>
-      </c>
-      <c r="C24">
-        <v>6.8450399999999995E-2</v>
-      </c>
-      <c r="D24">
-        <v>7.7170699999999995E-2</v>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="B25">
-        <v>6.6974400000000003E-2</v>
-      </c>
-      <c r="C25">
-        <v>6.8451600000000001E-2</v>
-      </c>
-      <c r="D25">
-        <v>7.5228000000000003E-2</v>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B26">
-        <v>7.4645100000000006E-2</v>
-      </c>
-      <c r="C26">
-        <v>7.4468500000000007E-2</v>
-      </c>
-      <c r="D26">
-        <v>8.0781199999999997E-2</v>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="B27">
-        <v>8.6770399999999998E-2</v>
-      </c>
-      <c r="C27">
-        <v>8.3394899999999994E-2</v>
-      </c>
-      <c r="D27">
-        <v>9.0617400000000001E-2</v>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
-      <c r="B28">
-        <v>7.9508400000000007E-2</v>
-      </c>
-      <c r="C28">
-        <v>7.6710799999999996E-2</v>
-      </c>
-      <c r="D28">
-        <v>8.4330600000000006E-2</v>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B29">
-        <v>7.8960699999999995E-2</v>
-      </c>
-      <c r="C29">
-        <v>7.5789599999999999E-2</v>
-      </c>
-      <c r="D29">
-        <v>8.3607399999999998E-2</v>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
-      <c r="B30">
-        <v>8.2615499999999994E-2</v>
-      </c>
-      <c r="C30">
-        <v>7.8454300000000005E-2</v>
-      </c>
-      <c r="D30">
-        <v>8.6747599999999994E-2</v>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
-      <c r="B31">
-        <v>8.9965400000000001E-2</v>
-      </c>
-      <c r="C31">
-        <v>8.4570199999999998E-2</v>
-      </c>
-      <c r="D31">
-        <v>9.3030500000000002E-2</v>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>
-      <c r="B32">
-        <v>8.5372799999999999E-2</v>
-      </c>
-      <c r="C32">
-        <v>8.01452E-2</v>
-      </c>
-      <c r="D32">
-        <v>8.8073100000000001E-2</v>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
-      <c r="B33">
-        <v>8.4296399999999994E-2</v>
-      </c>
-      <c r="C33">
-        <v>7.9347399999999998E-2</v>
-      </c>
-      <c r="D33">
-        <v>8.6318099999999995E-2</v>
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>14</v>
       </c>
-      <c r="B34">
-        <v>8.6292999999999995E-2</v>
-      </c>
-      <c r="C34">
-        <v>8.1344700000000006E-2</v>
-      </c>
-      <c r="D34">
-        <v>8.7653099999999998E-2</v>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>15</v>
       </c>
-      <c r="B35">
-        <v>9.1437599999999994E-2</v>
-      </c>
-      <c r="C35">
-        <v>8.6110800000000001E-2</v>
-      </c>
-      <c r="D35">
-        <v>9.16328E-2</v>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>0</v>
       </c>
-      <c r="B38">
-        <v>2.3188400000000001E-2</v>
-      </c>
-      <c r="C38" s="1">
-        <v>2.31297E-2</v>
-      </c>
-      <c r="D38">
-        <v>2.3004199999999999E-2</v>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1</v>
       </c>
-      <c r="B39">
-        <v>3.5952100000000001E-2</v>
-      </c>
-      <c r="C39">
-        <v>3.5873299999999997E-2</v>
-      </c>
-      <c r="D39">
-        <v>3.5803599999999998E-2</v>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>2</v>
       </c>
-      <c r="B40">
-        <v>5.0056299999999998E-2</v>
-      </c>
-      <c r="C40">
-        <v>5.0003300000000001E-2</v>
-      </c>
-      <c r="D40">
-        <v>4.9895099999999998E-2</v>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>3</v>
       </c>
-      <c r="B41">
-        <v>6.90775E-2</v>
-      </c>
-      <c r="C41">
-        <v>6.9037399999999999E-2</v>
-      </c>
-      <c r="D41">
-        <v>6.8790100000000007E-2</v>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
-      <c r="B42">
-        <v>5.9165500000000003E-2</v>
-      </c>
-      <c r="C42">
-        <v>5.9123299999999997E-2</v>
-      </c>
-      <c r="D42">
-        <v>5.8911699999999997E-2</v>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>5</v>
       </c>
-      <c r="B43">
-        <v>5.6491E-2</v>
-      </c>
-      <c r="C43">
-        <v>5.6438500000000003E-2</v>
-      </c>
-      <c r="D43">
-        <v>5.6269800000000002E-2</v>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>6</v>
       </c>
-      <c r="B44">
-        <v>5.89895E-2</v>
-      </c>
-      <c r="C44">
-        <v>5.8944400000000001E-2</v>
-      </c>
-      <c r="D44">
-        <v>5.87815E-2</v>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>7</v>
       </c>
-      <c r="B45">
-        <v>6.7628900000000006E-2</v>
-      </c>
-      <c r="C45">
-        <v>6.7589200000000002E-2</v>
-      </c>
-      <c r="D45">
-        <v>6.7360400000000001E-2</v>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>8</v>
       </c>
-      <c r="B46">
-        <v>6.2316299999999998E-2</v>
-      </c>
-      <c r="C46">
-        <v>6.2274200000000002E-2</v>
-      </c>
-      <c r="D46">
-        <v>6.2056300000000002E-2</v>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>9</v>
       </c>
-      <c r="B47">
-        <v>6.0365200000000001E-2</v>
-      </c>
-      <c r="C47">
-        <v>6.0315599999999997E-2</v>
-      </c>
-      <c r="D47">
-        <v>6.0100599999999997E-2</v>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>10</v>
       </c>
-      <c r="B48">
-        <v>6.1285199999999998E-2</v>
-      </c>
-      <c r="C48">
-        <v>6.1240099999999999E-2</v>
-      </c>
-      <c r="D48">
-        <v>6.1013699999999997E-2</v>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>11</v>
       </c>
-      <c r="B49">
-        <v>6.5420500000000006E-2</v>
-      </c>
-      <c r="C49">
-        <v>6.5379000000000007E-2</v>
-      </c>
-      <c r="D49">
-        <v>6.5080499999999999E-2</v>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>12</v>
       </c>
-      <c r="B50">
-        <v>6.20917E-2</v>
-      </c>
-      <c r="C50">
-        <v>6.2048600000000002E-2</v>
-      </c>
-      <c r="D50">
-        <v>6.1773099999999997E-2</v>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>13</v>
       </c>
-      <c r="B51">
-        <v>6.1274799999999997E-2</v>
-      </c>
-      <c r="C51">
-        <v>6.1225099999999998E-2</v>
-      </c>
-      <c r="D51">
-        <v>6.0963400000000001E-2</v>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>14</v>
       </c>
-      <c r="B52">
-        <v>6.2612299999999996E-2</v>
-      </c>
-      <c r="C52">
-        <v>6.2565800000000005E-2</v>
-      </c>
-      <c r="D52">
-        <v>6.2314300000000003E-2</v>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>15</v>
       </c>
-      <c r="B53">
-        <v>6.5743099999999999E-2</v>
-      </c>
-      <c r="C53">
-        <v>6.5699499999999994E-2</v>
-      </c>
-      <c r="D53">
-        <v>6.5449999999999994E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>22</v>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56">
-        <v>-1.29704E-2</v>
-      </c>
-      <c r="C56">
-        <v>-5.8158999999999997E-3</v>
-      </c>
-      <c r="D56" s="2">
-        <v>4.49616E-5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57">
-        <v>-3.3249099999999999E-3</v>
-      </c>
-      <c r="C57">
-        <v>2.69156E-3</v>
-      </c>
-      <c r="D57">
-        <v>7.2754999999999998E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58">
-        <v>1.6793400000000001E-3</v>
-      </c>
-      <c r="C58">
-        <v>9.3632799999999999E-3</v>
-      </c>
-      <c r="D58">
-        <v>1.6095100000000001E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59">
-        <v>8.1752700000000001E-3</v>
-      </c>
-      <c r="C59">
-        <v>1.08249E-2</v>
-      </c>
-      <c r="D59">
-        <v>2.1968700000000001E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60">
-        <v>7.5324600000000004E-3</v>
-      </c>
-      <c r="C60">
-        <v>9.3271299999999994E-3</v>
-      </c>
-      <c r="D60">
-        <v>1.8259000000000001E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61">
-        <v>1.04834E-2</v>
-      </c>
-      <c r="C61">
-        <v>1.2013100000000001E-2</v>
-      </c>
-      <c r="D61">
-        <v>1.8958099999999999E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62">
-        <v>1.5655599999999999E-2</v>
-      </c>
-      <c r="C62">
-        <v>1.5524100000000001E-2</v>
-      </c>
-      <c r="D62">
-        <v>2.1999600000000001E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63">
-        <v>1.9141499999999999E-2</v>
-      </c>
-      <c r="C63">
-        <v>1.5805699999999999E-2</v>
-      </c>
-      <c r="D63">
-        <v>2.3257E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64">
-        <v>1.7192099999999998E-2</v>
-      </c>
-      <c r="C64">
-        <v>1.4436600000000001E-2</v>
-      </c>
-      <c r="D64">
-        <v>2.22743E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65">
-        <v>1.85956E-2</v>
-      </c>
-      <c r="C65">
-        <v>1.5474E-2</v>
-      </c>
-      <c r="D65">
-        <v>2.3506800000000001E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66">
-        <v>2.13303E-2</v>
-      </c>
-      <c r="C66">
-        <v>1.7214299999999998E-2</v>
-      </c>
-      <c r="D66">
-        <v>2.5733900000000001E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67">
-        <v>2.4544900000000001E-2</v>
-      </c>
-      <c r="C67">
-        <v>1.9191199999999999E-2</v>
-      </c>
-      <c r="D67">
-        <v>2.7949999999999999E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68">
-        <v>2.3281099999999999E-2</v>
-      </c>
-      <c r="C68">
-        <v>1.8096600000000001E-2</v>
-      </c>
-      <c r="D68">
-        <v>2.63E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69">
-        <v>2.30215E-2</v>
-      </c>
-      <c r="C69">
-        <v>1.8122300000000001E-2</v>
-      </c>
-      <c r="D69">
-        <v>2.53548E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>14</v>
-      </c>
-      <c r="B70">
-        <v>2.3680799999999998E-2</v>
-      </c>
-      <c r="C70">
-        <v>1.8778900000000001E-2</v>
-      </c>
-      <c r="D70">
-        <v>2.5338800000000002E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>15</v>
-      </c>
-      <c r="B71">
-        <v>2.5694499999999999E-2</v>
-      </c>
-      <c r="C71">
-        <v>2.04113E-2</v>
-      </c>
-      <c r="D71">
-        <v>2.6182799999999999E-2</v>
-      </c>
+      <c r="D56" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
